--- a/Dayboi_Web/Template/tasks.xlsx
+++ b/Dayboi_Web/Template/tasks.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thien\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7572" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,7 +291,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -325,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +345,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -364,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,10 +394,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -501,7 +503,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,7 +538,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,19 +753,19 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B1" t="s">
@@ -797,8 +799,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
       <c r="D2" t="s">
         <v>3</v>
       </c>
@@ -812,8 +814,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
       <c r="D3" t="s">
         <v>36</v>
       </c>
@@ -827,8 +829,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -842,8 +844,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
       <c r="D5" t="s">
         <v>6</v>
       </c>
@@ -854,8 +856,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -866,24 +868,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
       <c r="F7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="F8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -891,7 +893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -899,7 +901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>32</v>
       </c>
@@ -907,18 +909,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
       <c r="C16" t="s">
         <v>1</v>
       </c>
@@ -932,28 +934,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
       <c r="E17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
       <c r="E18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>28</v>
       </c>
@@ -976,22 +978,22 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
@@ -1011,7 +1013,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1026,7 +1028,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -1043,7 +1045,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -1063,7 +1065,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -1081,7 +1083,7 @@
         <v>5950000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -1092,7 +1094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1105,7 +1107,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1118,11 +1120,11 @@
       <c r="E8" s="5">
         <v>4</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>47</v>
       </c>
@@ -1130,7 +1132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>82</v>
       </c>
@@ -1141,14 +1143,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1162,28 +1164,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1196,38 +1198,38 @@
       <c r="E15" s="5">
         <v>16</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -1244,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>9</v>
       </c>
@@ -1258,44 +1260,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>6</v>
       </c>
@@ -1312,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>20</v>
       </c>
@@ -1326,34 +1328,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>7</v>
       </c>
@@ -1370,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>63</v>
       </c>
@@ -1381,14 +1383,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>8</v>
       </c>
@@ -1402,14 +1404,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>9</v>
       </c>
@@ -1426,14 +1428,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>10</v>
       </c>
@@ -1447,7 +1449,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>38</v>
       </c>
@@ -1455,19 +1457,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>11</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>54</v>
       </c>
@@ -1503,9 +1505,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -1513,7 +1515,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
